--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -457,72 +457,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" t="n">
-        <v>40607</v>
+        <v>22360</v>
       </c>
       <c r="D2" t="n">
-        <v>86.65233235587674</v>
+        <v>89.95495495495493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>39211</v>
+        <v>22012</v>
       </c>
       <c r="D3" t="n">
-        <v>85.71029255004146</v>
+        <v>89.68482718219099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B4" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C4" t="n">
-        <v>41118</v>
+        <v>27315</v>
       </c>
       <c r="D4" t="n">
-        <v>84.15524431928112</v>
+        <v>89.36341161928304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
-        <v>38869</v>
+        <v>24551</v>
       </c>
       <c r="D5" t="n">
-        <v>84.09756660193341</v>
+        <v>89.24621212121212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B6" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C6" t="n">
-        <v>41986</v>
+        <v>29811</v>
       </c>
       <c r="D6" t="n">
-        <v>80.78488969360761</v>
+        <v>88.70020226022261</v>
       </c>
     </row>
   </sheetData>
